--- a/학습자료/단답형/고려_연도(왕)_후기.xlsx
+++ b/학습자료/단답형/고려_연도(왕)_후기.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>연도1</t>
@@ -471,8 +476,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>86</v>
       </c>
       <c r="B2" t="n">
         <v>1173</v>
@@ -509,8 +514,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="n">
+        <v>87</v>
       </c>
       <c r="B3" t="n">
         <v>1174</v>
@@ -547,8 +552,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="n">
+        <v>88</v>
       </c>
       <c r="B4" t="n">
         <v>1174</v>
@@ -585,8 +590,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="n">
+        <v>89</v>
       </c>
       <c r="B5" t="n">
         <v>1174</v>
@@ -623,8 +628,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="n">
+        <v>90</v>
       </c>
       <c r="B6" t="n">
         <v>1176</v>
@@ -661,8 +666,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="n">
+        <v>91</v>
       </c>
       <c r="B7" t="n">
         <v>1179</v>
@@ -699,8 +704,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="n">
+        <v>92</v>
       </c>
       <c r="B8" t="n">
         <v>1182</v>
@@ -737,8 +742,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="n">
+        <v>93</v>
       </c>
       <c r="B9" t="n">
         <v>1183</v>
@@ -775,8 +780,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="n">
+        <v>94</v>
       </c>
       <c r="B10" t="n">
         <v>1193</v>
@@ -813,8 +818,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="n">
+        <v>95</v>
       </c>
       <c r="B11" t="n">
         <v>1193</v>
@@ -851,8 +856,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="n">
+        <v>96</v>
       </c>
       <c r="B12" t="n">
         <v>1196</v>
@@ -889,8 +894,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="n">
+        <v>97</v>
       </c>
       <c r="B13" t="n">
         <v>1196</v>
@@ -927,8 +932,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="n">
+        <v>98</v>
       </c>
       <c r="B14" t="n">
         <v>1198</v>
@@ -965,8 +970,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="n">
+        <v>99</v>
       </c>
       <c r="B15" t="n">
         <v>1200</v>
@@ -1003,8 +1008,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="n">
+        <v>100</v>
       </c>
       <c r="B16" t="n">
         <v>1202</v>
@@ -1041,8 +1046,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="n">
+        <v>101</v>
       </c>
       <c r="B17" t="n">
         <v>1204</v>
@@ -1079,8 +1084,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="n">
+        <v>102</v>
       </c>
       <c r="B18" t="n">
         <v>1208</v>
@@ -1117,8 +1122,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="n">
+        <v>103</v>
       </c>
       <c r="B19" t="n">
         <v>1209</v>
@@ -1155,8 +1160,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="n">
+        <v>104</v>
       </c>
       <c r="B20" t="n">
         <v>1217</v>
@@ -1193,8 +1198,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="n">
+        <v>105</v>
       </c>
       <c r="B21" t="n">
         <v>1217</v>
@@ -1231,8 +1236,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="n">
+        <v>106</v>
       </c>
       <c r="B22" t="n">
         <v>1218</v>
@@ -1269,8 +1274,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="n">
+        <v>107</v>
       </c>
       <c r="B23" t="n">
         <v>1219</v>
@@ -1307,8 +1312,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="n">
+        <v>108</v>
       </c>
       <c r="B24" t="n">
         <v>1219</v>
@@ -1345,8 +1350,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="n">
+        <v>109</v>
       </c>
       <c r="B25" t="n">
         <v>1219</v>
@@ -1383,8 +1388,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="n">
+        <v>110</v>
       </c>
       <c r="B26" t="n">
         <v>1225</v>
@@ -1421,8 +1426,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="n">
+        <v>111</v>
       </c>
       <c r="B27" t="n">
         <v>1225</v>
@@ -1459,8 +1464,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="n">
+        <v>112</v>
       </c>
       <c r="B28" t="n">
         <v>1227</v>
@@ -1497,8 +1502,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="n">
+        <v>113</v>
       </c>
       <c r="B29" t="n">
         <v>1231</v>
@@ -1535,8 +1540,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="n">
+        <v>114</v>
       </c>
       <c r="B30" t="n">
         <v>1232</v>
@@ -1573,8 +1578,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="n">
+        <v>115</v>
       </c>
       <c r="B31" t="n">
         <v>1232</v>
@@ -1611,8 +1616,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="n">
+        <v>116</v>
       </c>
       <c r="B32" t="n">
         <v>1232</v>
@@ -1649,8 +1654,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="n">
+        <v>117</v>
       </c>
       <c r="B33" t="n">
         <v>1234</v>
@@ -1687,8 +1692,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="n">
+        <v>118</v>
       </c>
       <c r="B34" t="n">
         <v>1235</v>
@@ -1725,8 +1730,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="n">
+        <v>119</v>
       </c>
       <c r="B35" t="n">
         <v>1235</v>
@@ -1763,8 +1768,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="n">
+        <v>120</v>
       </c>
       <c r="B36" t="n">
         <v>1236</v>
@@ -1801,8 +1806,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="n">
+        <v>121</v>
       </c>
       <c r="B37" t="n">
         <v>1237</v>
@@ -1839,8 +1844,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="n">
+        <v>122</v>
       </c>
       <c r="B38" t="n">
         <v>1238</v>
@@ -1877,8 +1882,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="n">
+        <v>123</v>
       </c>
       <c r="B39" t="n">
         <v>1241</v>
@@ -1915,8 +1920,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="n">
+        <v>124</v>
       </c>
       <c r="B40" t="n">
         <v>1253</v>
@@ -1953,8 +1958,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="n">
+        <v>125</v>
       </c>
       <c r="B41" t="n">
         <v>1254</v>
@@ -1991,8 +1996,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="n">
+        <v>126</v>
       </c>
       <c r="B42" t="n">
         <v>1258</v>
@@ -2029,8 +2034,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="n">
+        <v>127</v>
       </c>
       <c r="B43" t="n">
         <v>1258</v>
@@ -2067,8 +2072,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="n">
+        <v>128</v>
       </c>
       <c r="B44" t="n">
         <v>1259</v>
@@ -2105,8 +2110,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="n">
+        <v>129</v>
       </c>
       <c r="B45" t="n">
         <v>1260</v>
@@ -2143,8 +2148,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="n">
+        <v>130</v>
       </c>
       <c r="B46" t="n">
         <v>1270</v>
@@ -2181,8 +2186,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="n">
+        <v>131</v>
       </c>
       <c r="B47" t="n">
         <v>1270</v>
@@ -2219,8 +2224,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="n">
+        <v>132</v>
       </c>
       <c r="B48" t="n">
         <v>1270</v>
@@ -2257,8 +2262,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="n">
+        <v>133</v>
       </c>
       <c r="B49" t="n">
         <v>1271</v>
@@ -2295,8 +2300,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="n">
+        <v>134</v>
       </c>
       <c r="B50" t="n">
         <v>1273</v>
@@ -2333,8 +2338,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="n">
+        <v>135</v>
       </c>
       <c r="B51" t="n">
         <v>1274</v>
@@ -2371,8 +2376,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="n">
+        <v>136</v>
       </c>
       <c r="B52" t="n">
         <v>1274</v>
@@ -2409,8 +2414,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="n">
+        <v>137</v>
       </c>
       <c r="B53" t="n">
         <v>1275</v>
@@ -2447,8 +2452,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="n">
+        <v>138</v>
       </c>
       <c r="B54" t="n">
         <v>1278</v>
@@ -2485,8 +2490,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="n">
+        <v>139</v>
       </c>
       <c r="B55" t="n">
         <v>1279</v>
@@ -2523,8 +2528,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="n">
+        <v>140</v>
       </c>
       <c r="B56" t="n">
         <v>1280</v>
@@ -2561,8 +2566,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="n">
+        <v>141</v>
       </c>
       <c r="B57" t="n">
         <v>1281</v>
@@ -2599,8 +2604,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="n">
+        <v>142</v>
       </c>
       <c r="B58" t="n">
         <v>1281</v>
@@ -2637,8 +2642,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="n">
+        <v>143</v>
       </c>
       <c r="B59" t="n">
         <v>1281</v>
@@ -2675,8 +2680,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="n">
+        <v>144</v>
       </c>
       <c r="B60" t="n">
         <v>1287</v>
@@ -2713,8 +2718,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="n">
+        <v>145</v>
       </c>
       <c r="B61" t="n">
         <v>1290</v>
@@ -2751,8 +2756,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="n">
+        <v>146</v>
       </c>
       <c r="B62" t="n">
         <v>1290</v>
@@ -2789,8 +2794,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="n">
+        <v>147</v>
       </c>
       <c r="B63" t="n">
         <v>1298</v>
@@ -2827,8 +2832,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="n">
+        <v>148</v>
       </c>
       <c r="B64" t="n">
         <v>1298</v>
@@ -2865,8 +2870,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="n">
+        <v>149</v>
       </c>
       <c r="B65" t="n">
         <v>1301</v>
@@ -2903,8 +2908,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="n">
+        <v>150</v>
       </c>
       <c r="B66" t="n">
         <v>1304</v>
@@ -2941,8 +2946,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="n">
+        <v>151</v>
       </c>
       <c r="B67" t="n">
         <v>1308</v>
@@ -2979,8 +2984,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="n">
+        <v>152</v>
       </c>
       <c r="B68" t="n">
         <v>1308</v>
@@ -3017,8 +3022,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="n">
+        <v>153</v>
       </c>
       <c r="B69" t="n">
         <v>1309</v>
@@ -3055,8 +3060,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="n">
+        <v>154</v>
       </c>
       <c r="B70" t="n">
         <v>1309</v>
@@ -3093,8 +3098,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="n">
+        <v>155</v>
       </c>
       <c r="B71" t="n">
         <v>1314</v>
@@ -3131,8 +3136,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="n">
+        <v>156</v>
       </c>
       <c r="B72" t="n">
         <v>1317</v>
@@ -3169,8 +3174,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="n">
+        <v>157</v>
       </c>
       <c r="B73" t="n">
         <v>1318</v>
@@ -3207,8 +3212,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="n">
+        <v>158</v>
       </c>
       <c r="B74" t="n">
         <v>1318</v>
@@ -3245,8 +3250,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="n">
+        <v>159</v>
       </c>
       <c r="B75" t="n">
         <v>1347</v>
@@ -3283,8 +3288,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="n">
+        <v>160</v>
       </c>
       <c r="B76" t="n">
         <v>1352</v>
@@ -3321,8 +3326,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="n">
+        <v>161</v>
       </c>
       <c r="B77" t="n">
         <v>1352</v>
@@ -3359,8 +3364,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="n">
+        <v>162</v>
       </c>
       <c r="B78" t="n">
         <v>1354</v>
@@ -3397,8 +3402,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="n">
+        <v>163</v>
       </c>
       <c r="B79" t="n">
         <v>1356</v>
@@ -3435,8 +3440,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="n">
+        <v>164</v>
       </c>
       <c r="B80" t="n">
         <v>1356</v>
@@ -3473,8 +3478,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="n">
+        <v>165</v>
       </c>
       <c r="B81" t="n">
         <v>1356</v>
@@ -3511,8 +3516,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="n">
+        <v>166</v>
       </c>
       <c r="B82" t="n">
         <v>1356</v>
@@ -3549,8 +3554,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="n">
+        <v>167</v>
       </c>
       <c r="B83" t="n">
         <v>1357</v>
@@ -3587,8 +3592,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="n">
+        <v>168</v>
       </c>
       <c r="B84" t="n">
         <v>1359</v>
@@ -3625,8 +3630,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="n">
+        <v>169</v>
       </c>
       <c r="B85" t="n">
         <v>1361</v>
@@ -3663,8 +3668,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="n">
+        <v>170</v>
       </c>
       <c r="B86" t="n">
         <v>1362</v>
@@ -3701,8 +3706,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="n">
+        <v>171</v>
       </c>
       <c r="B87" t="n">
         <v>1363</v>
@@ -3739,8 +3744,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="n">
+        <v>172</v>
       </c>
       <c r="B88" t="n">
         <v>1366</v>
@@ -3777,8 +3782,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="n">
+        <v>173</v>
       </c>
       <c r="B89" t="n">
         <v>1367</v>
@@ -3815,8 +3820,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="n">
+        <v>174</v>
       </c>
       <c r="B90" t="n">
         <v>1367</v>
@@ -3853,8 +3858,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="n">
+        <v>175</v>
       </c>
       <c r="B91" t="n">
         <v>1370</v>
@@ -3891,8 +3896,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="n">
+        <v>176</v>
       </c>
       <c r="B92" t="n">
         <v>1370</v>
@@ -3929,8 +3934,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="n">
+        <v>177</v>
       </c>
       <c r="B93" t="n">
         <v>1372</v>
@@ -3967,8 +3972,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="n">
+        <v>178</v>
       </c>
       <c r="B94" t="n">
         <v>1376</v>
@@ -4005,8 +4010,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="n">
+        <v>179</v>
       </c>
       <c r="B95" t="n">
         <v>1377</v>
@@ -4043,8 +4048,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="n">
+        <v>180</v>
       </c>
       <c r="B96" t="n">
         <v>1377</v>
@@ -4081,8 +4086,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="n">
+        <v>181</v>
       </c>
       <c r="B97" t="n">
         <v>1380</v>
@@ -4119,8 +4124,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="n">
+        <v>182</v>
       </c>
       <c r="B98" t="n">
         <v>1380</v>
@@ -4157,8 +4162,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="n">
+        <v>183</v>
       </c>
       <c r="B99" t="n">
         <v>1383</v>
@@ -4195,8 +4200,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="n">
+        <v>184</v>
       </c>
       <c r="B100" t="n">
         <v>1388</v>
@@ -4233,8 +4238,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="n">
+        <v>185</v>
       </c>
       <c r="B101" t="n">
         <v>1388</v>
@@ -4271,8 +4276,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="n">
+        <v>186</v>
       </c>
       <c r="B102" t="n">
         <v>1388</v>
@@ -4309,8 +4314,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="n">
+        <v>187</v>
       </c>
       <c r="B103" t="n">
         <v>1388</v>
@@ -4347,8 +4352,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="n">
+        <v>188</v>
       </c>
       <c r="B104" t="n">
         <v>1389</v>
@@ -4385,8 +4390,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="n">
+        <v>189</v>
       </c>
       <c r="B105" t="n">
         <v>1389</v>
@@ -4423,8 +4428,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="n">
+        <v>190</v>
       </c>
       <c r="B106" t="n">
         <v>1390</v>
@@ -4461,8 +4466,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="n">
+        <v>191</v>
       </c>
       <c r="B107" t="n">
         <v>1391</v>
@@ -4499,8 +4504,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="n">
+        <v>192</v>
       </c>
       <c r="B108" t="n">
         <v>1391</v>
@@ -4537,8 +4542,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="n">
+        <v>193</v>
       </c>
       <c r="B109" t="n">
         <v>1391</v>
@@ -4575,8 +4580,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="n">
+        <v>194</v>
       </c>
       <c r="B110" t="n">
         <v>1391</v>
@@ -4613,8 +4618,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="n">
+        <v>195</v>
       </c>
       <c r="B111" t="n">
         <v>1392</v>
@@ -4651,8 +4656,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="n">
+        <v>196</v>
       </c>
       <c r="B112" t="n">
         <v>1392</v>
@@ -4689,8 +4694,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="n">
+        <v>197</v>
       </c>
       <c r="B113" t="n">
         <v>1392</v>
